--- a/document/data source_課程資料/普高/skill_curriculum/skill_curriculum_數學3A.xlsx
+++ b/document/data source_課程資料/普高/skill_curriculum/skill_curriculum_數學3A.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\math-master\document\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\math-master\document\data source_課程資料\普高\skill_curriculum\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -605,8 +605,8 @@
   </sheetPr>
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -666,7 +666,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -695,7 +695,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -724,7 +724,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -753,7 +753,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -782,7 +782,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -811,7 +811,7 @@
         <v>30</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -840,7 +840,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -869,7 +869,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -898,7 +898,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -927,7 +927,7 @@
         <v>20</v>
       </c>
       <c r="I11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -956,7 +956,7 @@
         <v>30</v>
       </c>
       <c r="I12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -985,7 +985,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1014,7 +1014,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1043,7 +1043,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1072,7 +1072,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1101,7 +1101,7 @@
         <v>10</v>
       </c>
       <c r="I17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1130,7 +1130,7 @@
         <v>20</v>
       </c>
       <c r="I18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1159,7 +1159,7 @@
         <v>30</v>
       </c>
       <c r="I19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1188,7 +1188,7 @@
         <v>40</v>
       </c>
       <c r="I20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1217,7 +1217,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1246,7 +1246,7 @@
         <v>20</v>
       </c>
       <c r="I22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1275,7 +1275,7 @@
         <v>30</v>
       </c>
       <c r="I23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1304,7 +1304,7 @@
         <v>10</v>
       </c>
       <c r="I24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1333,7 +1333,7 @@
         <v>20</v>
       </c>
       <c r="I25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1362,7 +1362,7 @@
         <v>10</v>
       </c>
       <c r="I26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1391,7 +1391,7 @@
         <v>20</v>
       </c>
       <c r="I27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1420,7 +1420,7 @@
         <v>30</v>
       </c>
       <c r="I28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1449,7 +1449,7 @@
         <v>10</v>
       </c>
       <c r="I29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1478,7 +1478,7 @@
         <v>20</v>
       </c>
       <c r="I30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1507,7 +1507,7 @@
         <v>30</v>
       </c>
       <c r="I31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1536,7 +1536,7 @@
         <v>40</v>
       </c>
       <c r="I32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1565,7 +1565,7 @@
         <v>50</v>
       </c>
       <c r="I33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1594,7 +1594,7 @@
         <v>10</v>
       </c>
       <c r="I34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1623,7 +1623,7 @@
         <v>20</v>
       </c>
       <c r="I35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1652,7 +1652,7 @@
         <v>30</v>
       </c>
       <c r="I36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="I37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -1710,7 +1710,7 @@
         <v>20</v>
       </c>
       <c r="I38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -1739,7 +1739,7 @@
         <v>10</v>
       </c>
       <c r="I39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -1768,7 +1768,7 @@
         <v>20</v>
       </c>
       <c r="I40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -1797,7 +1797,7 @@
         <v>10</v>
       </c>
       <c r="I41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -1826,7 +1826,7 @@
         <v>10</v>
       </c>
       <c r="I42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -1855,7 +1855,7 @@
         <v>20</v>
       </c>
       <c r="I43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -1884,7 +1884,7 @@
         <v>30</v>
       </c>
       <c r="I44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -1913,7 +1913,7 @@
         <v>10</v>
       </c>
       <c r="I45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -1942,7 +1942,7 @@
         <v>20</v>
       </c>
       <c r="I46" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -1971,7 +1971,7 @@
         <v>10</v>
       </c>
       <c r="I47" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -2000,7 +2000,7 @@
         <v>10</v>
       </c>
       <c r="I48" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -2029,7 +2029,7 @@
         <v>20</v>
       </c>
       <c r="I49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -2058,7 +2058,7 @@
         <v>30</v>
       </c>
       <c r="I50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -2087,7 +2087,7 @@
         <v>40</v>
       </c>
       <c r="I51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -2116,7 +2116,7 @@
         <v>10</v>
       </c>
       <c r="I52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -2145,7 +2145,7 @@
         <v>20</v>
       </c>
       <c r="I53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -2174,7 +2174,7 @@
         <v>30</v>
       </c>
       <c r="I54" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -2203,7 +2203,7 @@
         <v>10</v>
       </c>
       <c r="I55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -2232,7 +2232,7 @@
         <v>20</v>
       </c>
       <c r="I56" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -2261,7 +2261,7 @@
         <v>10</v>
       </c>
       <c r="I57" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -2290,7 +2290,7 @@
         <v>20</v>
       </c>
       <c r="I58" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -2319,11 +2319,12 @@
         <v>30</v>
       </c>
       <c r="I59" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>